--- a/data/pca/factorExposure/factorExposure_2011-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.0105615666095436</v>
+        <v>-0.01417605112921635</v>
       </c>
       <c r="C2">
-        <v>-0.001112437376651937</v>
+        <v>-0.005806119851907138</v>
       </c>
       <c r="D2">
-        <v>0.01622363140871721</v>
+        <v>-0.004017011452753112</v>
       </c>
       <c r="E2">
-        <v>0.02051577729756443</v>
+        <v>0.009169260229131627</v>
       </c>
       <c r="F2">
-        <v>0.0006525796798722666</v>
+        <v>0.002039594688423517</v>
       </c>
       <c r="G2">
-        <v>0.01935395561852477</v>
+        <v>-0.02298547234040989</v>
       </c>
       <c r="H2">
-        <v>-0.04467410911694586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.009888630345445714</v>
+      </c>
+      <c r="I2">
+        <v>0.002502150736382639</v>
+      </c>
+      <c r="J2">
+        <v>0.01070142643715813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1083920871101382</v>
+        <v>-0.123626227007137</v>
       </c>
       <c r="C4">
-        <v>0.01916617528739815</v>
+        <v>-0.04854407726364578</v>
       </c>
       <c r="D4">
-        <v>0.07099797424985232</v>
+        <v>-0.01086219163254364</v>
       </c>
       <c r="E4">
-        <v>0.03185027837145483</v>
+        <v>-0.002533588188723578</v>
       </c>
       <c r="F4">
-        <v>0.04665035483222887</v>
+        <v>0.01168417767645366</v>
       </c>
       <c r="G4">
-        <v>0.01861987184152041</v>
+        <v>-0.004307613753599874</v>
       </c>
       <c r="H4">
-        <v>0.02737233115650409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.0221936844697752</v>
+      </c>
+      <c r="I4">
+        <v>-0.1421145421444285</v>
+      </c>
+      <c r="J4">
+        <v>0.04797013328396937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.1285295145569353</v>
+        <v>-0.1234945707067666</v>
       </c>
       <c r="C6">
-        <v>0.02495634728908983</v>
+        <v>0.006859728573997236</v>
       </c>
       <c r="D6">
-        <v>0.008935163811859187</v>
+        <v>-0.01228262770423609</v>
       </c>
       <c r="E6">
-        <v>0.01498400426021437</v>
+        <v>0.01570154653317705</v>
       </c>
       <c r="F6">
-        <v>-0.1908158539856019</v>
+        <v>0.02636068374686927</v>
       </c>
       <c r="G6">
-        <v>-0.1089048908236948</v>
+        <v>0.040933733826502</v>
       </c>
       <c r="H6">
-        <v>0.2867960949675575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.03992571970133342</v>
+      </c>
+      <c r="I6">
+        <v>-0.02872967757575325</v>
+      </c>
+      <c r="J6">
+        <v>-0.2109177540470016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.09051102506187586</v>
+        <v>-0.08081819356079897</v>
       </c>
       <c r="C7">
-        <v>0.03527838408842923</v>
+        <v>-0.04131557159415479</v>
       </c>
       <c r="D7">
-        <v>0.03345700835990097</v>
+        <v>-0.0413706108505927</v>
       </c>
       <c r="E7">
-        <v>0.05083433064656347</v>
+        <v>0.04090293296266908</v>
       </c>
       <c r="F7">
-        <v>-0.003501222740117871</v>
+        <v>0.006752522273563447</v>
       </c>
       <c r="G7">
-        <v>-0.002952556949612396</v>
+        <v>-0.03780641740071573</v>
       </c>
       <c r="H7">
-        <v>0.006738475586166581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.0108726953349418</v>
+      </c>
+      <c r="I7">
+        <v>-0.03025229411130924</v>
+      </c>
+      <c r="J7">
+        <v>0.03880805324031363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04133531916571122</v>
+        <v>-0.0512012360316453</v>
       </c>
       <c r="C8">
-        <v>-0.03457518587286325</v>
+        <v>-0.008257561722970102</v>
       </c>
       <c r="D8">
-        <v>0.1193930874940139</v>
+        <v>-0.007746338370476114</v>
       </c>
       <c r="E8">
-        <v>0.08368848890397459</v>
+        <v>0.01636038964700663</v>
       </c>
       <c r="F8">
-        <v>0.0366425069379404</v>
+        <v>-0.001358713722607613</v>
       </c>
       <c r="G8">
-        <v>0.1342623414310135</v>
+        <v>-0.001491553339468136</v>
       </c>
       <c r="H8">
-        <v>0.05686699226968777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.04519790341514822</v>
+      </c>
+      <c r="I8">
+        <v>-0.1250704528073705</v>
+      </c>
+      <c r="J8">
+        <v>0.004817690849919357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.09386327174451166</v>
+        <v>-0.09616640633045732</v>
       </c>
       <c r="C9">
-        <v>0.03791572460654286</v>
+        <v>-0.05202017405602438</v>
       </c>
       <c r="D9">
-        <v>0.06111949703911624</v>
+        <v>0.003378340986079532</v>
       </c>
       <c r="E9">
-        <v>0.03829524777709028</v>
+        <v>0.007682742494537285</v>
       </c>
       <c r="F9">
-        <v>0.02921447115489838</v>
+        <v>0.0004390348292092861</v>
       </c>
       <c r="G9">
-        <v>0.06523924093895711</v>
+        <v>-0.01906434305892566</v>
       </c>
       <c r="H9">
-        <v>0.04042571503653715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.03933593876029471</v>
+      </c>
+      <c r="I9">
+        <v>-0.1231026212999001</v>
+      </c>
+      <c r="J9">
+        <v>0.02185924851544093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.0371877492113679</v>
+        <v>-0.07216543105412036</v>
       </c>
       <c r="C10">
-        <v>-0.1729086529442226</v>
+        <v>0.1882290768961744</v>
       </c>
       <c r="D10">
-        <v>0.04654454162010044</v>
+        <v>0.02447802833564346</v>
       </c>
       <c r="E10">
-        <v>0.09921559736749792</v>
+        <v>-0.009613494152579147</v>
       </c>
       <c r="F10">
-        <v>-0.01218045719877757</v>
+        <v>0.01104252289181772</v>
       </c>
       <c r="G10">
-        <v>-0.01864242776871085</v>
+        <v>-0.06419059861099442</v>
       </c>
       <c r="H10">
-        <v>0.0286587511304717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.004015826712880078</v>
+      </c>
+      <c r="I10">
+        <v>-0.008720094131774206</v>
+      </c>
+      <c r="J10">
+        <v>0.0155783749039738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.07733354636093309</v>
+        <v>-0.08581678822912311</v>
       </c>
       <c r="C11">
-        <v>0.06050806146325313</v>
+        <v>-0.05137440173924557</v>
       </c>
       <c r="D11">
-        <v>-0.007290108517097301</v>
+        <v>-0.02696787315426291</v>
       </c>
       <c r="E11">
-        <v>0.03015089180202225</v>
+        <v>0.02554443376280652</v>
       </c>
       <c r="F11">
-        <v>0.01080993982205019</v>
+        <v>-0.03401022196591986</v>
       </c>
       <c r="G11">
-        <v>0.1547061519692888</v>
+        <v>0.002518456224353231</v>
       </c>
       <c r="H11">
-        <v>-0.06026141910948151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05010003249049434</v>
+      </c>
+      <c r="I11">
+        <v>-0.1106835823120796</v>
+      </c>
+      <c r="J11">
+        <v>0.01315612922679063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.07406368825439109</v>
+        <v>-0.08890518675874418</v>
       </c>
       <c r="C12">
-        <v>0.04055461449899959</v>
+        <v>-0.05973526126555462</v>
       </c>
       <c r="D12">
-        <v>0.03001197453360736</v>
+        <v>-0.02886943716165489</v>
       </c>
       <c r="E12">
-        <v>0.01056354310642971</v>
+        <v>0.03076265182150604</v>
       </c>
       <c r="F12">
-        <v>-0.009991896653248558</v>
+        <v>-0.0573104577965123</v>
       </c>
       <c r="G12">
-        <v>0.1444110781909637</v>
+        <v>-0.009951696324112226</v>
       </c>
       <c r="H12">
-        <v>-0.03283943604564026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.06988459778471087</v>
+      </c>
+      <c r="I12">
+        <v>-0.1023327877688966</v>
+      </c>
+      <c r="J12">
+        <v>-0.01082399302521519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.063480880290238</v>
+        <v>-0.04898983369761688</v>
       </c>
       <c r="C13">
-        <v>0.006955669047138542</v>
+        <v>-0.03232552286576517</v>
       </c>
       <c r="D13">
-        <v>0.02693960258108102</v>
+        <v>0.02497319408014774</v>
       </c>
       <c r="E13">
-        <v>0.003692388907442751</v>
+        <v>0.009592640000747558</v>
       </c>
       <c r="F13">
-        <v>0.05496935128092222</v>
+        <v>0.02585873111876758</v>
       </c>
       <c r="G13">
-        <v>0.06483455486055523</v>
+        <v>-0.01266333636921723</v>
       </c>
       <c r="H13">
-        <v>-0.003099791640768669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.0503582783183272</v>
+      </c>
+      <c r="I13">
+        <v>-0.06717247704282331</v>
+      </c>
+      <c r="J13">
+        <v>-0.02247490590619574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.05282025318407022</v>
+        <v>-0.03627495171628597</v>
       </c>
       <c r="C14">
-        <v>0.007237864175000851</v>
+        <v>-0.003027506904605919</v>
       </c>
       <c r="D14">
-        <v>0.04416260782118597</v>
+        <v>-0.007738793901133349</v>
       </c>
       <c r="E14">
-        <v>0.04982940107465325</v>
+        <v>-0.00704473503327701</v>
       </c>
       <c r="F14">
-        <v>0.03477018736537159</v>
+        <v>-0.008452305039681238</v>
       </c>
       <c r="G14">
-        <v>0.02427129636714171</v>
+        <v>-0.008252486714647737</v>
       </c>
       <c r="H14">
-        <v>0.1455635642548526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.01635176939980223</v>
+      </c>
+      <c r="I14">
+        <v>-0.06741220454442405</v>
+      </c>
+      <c r="J14">
+        <v>0.06529885336195547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.03690572131463025</v>
+        <v>-0.02862779609093631</v>
       </c>
       <c r="C15">
-        <v>-0.01156415000768949</v>
+        <v>-0.01017998614728889</v>
       </c>
       <c r="D15">
-        <v>0.008470705176383334</v>
+        <v>0.01183988369045296</v>
       </c>
       <c r="E15">
-        <v>0.01649525888106264</v>
+        <v>0.01155410370324655</v>
       </c>
       <c r="F15">
-        <v>0.007547099769512071</v>
+        <v>0.03619551063263551</v>
       </c>
       <c r="G15">
-        <v>0.008468339785357517</v>
+        <v>-0.01004825176351061</v>
       </c>
       <c r="H15">
-        <v>0.06586487704220167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.02255499109916718</v>
+      </c>
+      <c r="I15">
+        <v>-0.01435977770693878</v>
+      </c>
+      <c r="J15">
+        <v>0.01249841566757476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.08237583233262853</v>
+        <v>-0.0917567271033741</v>
       </c>
       <c r="C16">
-        <v>0.067852868889813</v>
+        <v>-0.05448723585560727</v>
       </c>
       <c r="D16">
-        <v>0.03192806676552567</v>
+        <v>-0.03962773872950671</v>
       </c>
       <c r="E16">
-        <v>0.01126511033493834</v>
+        <v>0.03641657893943027</v>
       </c>
       <c r="F16">
-        <v>0.04696870744462329</v>
+        <v>-0.03810222579811255</v>
       </c>
       <c r="G16">
-        <v>0.1118226128143108</v>
+        <v>-2.929318487757368e-05</v>
       </c>
       <c r="H16">
-        <v>-0.05973436677693647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.07257114842641255</v>
+      </c>
+      <c r="I16">
+        <v>-0.09909082250300308</v>
+      </c>
+      <c r="J16">
+        <v>0.02188120776071694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.05611758541302874</v>
+        <v>-0.05242127138318026</v>
       </c>
       <c r="C20">
-        <v>0.01826898450590748</v>
+        <v>-0.02249885886001662</v>
       </c>
       <c r="D20">
-        <v>0.01827935654948976</v>
+        <v>-0.03307114565383628</v>
       </c>
       <c r="E20">
-        <v>0.01604934881219374</v>
+        <v>0.001315408054346584</v>
       </c>
       <c r="F20">
-        <v>0.005795484315935848</v>
+        <v>0.0143723287778573</v>
       </c>
       <c r="G20">
-        <v>0.1046260262492821</v>
+        <v>-0.005044559160996664</v>
       </c>
       <c r="H20">
-        <v>-0.004491606724647846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.03007352209986454</v>
+      </c>
+      <c r="I20">
+        <v>-0.05661332535577103</v>
+      </c>
+      <c r="J20">
+        <v>0.02737198305881667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.02954367138460363</v>
+        <v>-0.02643228596197704</v>
       </c>
       <c r="C21">
-        <v>0.03846096508779008</v>
+        <v>-0.001751044085856906</v>
       </c>
       <c r="D21">
-        <v>0.01664999009398755</v>
+        <v>-0.01141801319378281</v>
       </c>
       <c r="E21">
-        <v>0.01458015012460455</v>
+        <v>-0.03974049480084618</v>
       </c>
       <c r="F21">
-        <v>-0.07686486042256774</v>
+        <v>0.01672015105705103</v>
       </c>
       <c r="G21">
-        <v>-0.1001436459839381</v>
+        <v>0.02945119981720367</v>
       </c>
       <c r="H21">
-        <v>0.09968649398031648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.001122321055757929</v>
+      </c>
+      <c r="I21">
+        <v>-0.07221703487833403</v>
+      </c>
+      <c r="J21">
+        <v>-0.01627201714677351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.04444288188655668</v>
+        <v>-0.0351363169074927</v>
       </c>
       <c r="C22">
-        <v>0.01985701652402718</v>
+        <v>0.01336902833215487</v>
       </c>
       <c r="D22">
-        <v>0.5232415788820035</v>
+        <v>-0.00925202050369853</v>
       </c>
       <c r="E22">
-        <v>-0.2239773279624825</v>
+        <v>0.1570356651371811</v>
       </c>
       <c r="F22">
-        <v>0.1056343668059303</v>
+        <v>0.6154401969791046</v>
       </c>
       <c r="G22">
-        <v>-0.3145732585072201</v>
+        <v>-0.09293690361718089</v>
       </c>
       <c r="H22">
-        <v>-0.1028317226786502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1817792823099056</v>
+      </c>
+      <c r="I22">
+        <v>0.1072261148313461</v>
+      </c>
+      <c r="J22">
+        <v>-0.01623474702707646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.04457566903099925</v>
+        <v>-0.03532223493443624</v>
       </c>
       <c r="C23">
-        <v>0.02025746363171198</v>
+        <v>0.01311072882276965</v>
       </c>
       <c r="D23">
-        <v>0.5228075056464364</v>
+        <v>-0.009702449173246223</v>
       </c>
       <c r="E23">
-        <v>-0.2214982073037514</v>
+        <v>0.1588003268067042</v>
       </c>
       <c r="F23">
-        <v>0.106833853259432</v>
+        <v>0.6172941550185157</v>
       </c>
       <c r="G23">
-        <v>-0.3155400381574632</v>
+        <v>-0.09278054872427176</v>
       </c>
       <c r="H23">
-        <v>-0.1020946363811158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1826093107283422</v>
+      </c>
+      <c r="I23">
+        <v>0.1035908102768205</v>
+      </c>
+      <c r="J23">
+        <v>-0.01525851399008881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.08662463345582583</v>
+        <v>-0.09649335792328997</v>
       </c>
       <c r="C24">
-        <v>0.04772405270903782</v>
+        <v>-0.05210850276605736</v>
       </c>
       <c r="D24">
-        <v>0.03698442175555394</v>
+        <v>-0.03574700962282132</v>
       </c>
       <c r="E24">
-        <v>0.03129172453743245</v>
+        <v>0.02271371656444326</v>
       </c>
       <c r="F24">
-        <v>0.006743203812130056</v>
+        <v>-0.03547247151574568</v>
       </c>
       <c r="G24">
-        <v>0.1202265813387437</v>
+        <v>-0.0161162439522392</v>
       </c>
       <c r="H24">
-        <v>-0.02866340802695091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.07644372477022081</v>
+      </c>
+      <c r="I24">
+        <v>-0.09564657763464625</v>
+      </c>
+      <c r="J24">
+        <v>0.005669066725731775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.07660764433005252</v>
+        <v>-0.0946040874191354</v>
       </c>
       <c r="C25">
-        <v>0.0234259814030981</v>
+        <v>-0.03478823989287547</v>
       </c>
       <c r="D25">
-        <v>0.03243531837260424</v>
+        <v>-0.02583241066109554</v>
       </c>
       <c r="E25">
-        <v>0.0216769558067434</v>
+        <v>0.02215020338019228</v>
       </c>
       <c r="F25">
-        <v>-0.009740713108267756</v>
+        <v>-0.06141998923496546</v>
       </c>
       <c r="G25">
-        <v>0.1207479774178165</v>
+        <v>-0.0134892996773004</v>
       </c>
       <c r="H25">
-        <v>-0.03098782883981959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.07275937082658344</v>
+      </c>
+      <c r="I25">
+        <v>-0.08872800064837728</v>
+      </c>
+      <c r="J25">
+        <v>0.02409398452076525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.0527002308706781</v>
+        <v>-0.04154467328181895</v>
       </c>
       <c r="C26">
-        <v>0.02198643640820059</v>
+        <v>0.01411804270057517</v>
       </c>
       <c r="D26">
-        <v>0.02230170563438644</v>
+        <v>-0.02100007682870176</v>
       </c>
       <c r="E26">
-        <v>0.04714427717775584</v>
+        <v>-0.005105625897719582</v>
       </c>
       <c r="F26">
-        <v>0.04040811504552509</v>
+        <v>0.008677802562972887</v>
       </c>
       <c r="G26">
-        <v>0.05360152539868947</v>
+        <v>0.01873694031630175</v>
       </c>
       <c r="H26">
-        <v>0.07747477151002227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05304321803020902</v>
+      </c>
+      <c r="I26">
+        <v>-0.04313735549149868</v>
+      </c>
+      <c r="J26">
+        <v>0.04160498835910212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.06058205045788501</v>
+        <v>-0.08018930328558783</v>
       </c>
       <c r="C28">
-        <v>-0.3066194829295101</v>
+        <v>0.3023781149476551</v>
       </c>
       <c r="D28">
-        <v>-0.01065712950020157</v>
+        <v>0.1109533669028065</v>
       </c>
       <c r="E28">
-        <v>0.02584248252715677</v>
+        <v>0.001920991691259644</v>
       </c>
       <c r="F28">
-        <v>-0.04874972110112923</v>
+        <v>-0.02252145705205732</v>
       </c>
       <c r="G28">
-        <v>-0.01918789995567553</v>
+        <v>-0.001941406488360246</v>
       </c>
       <c r="H28">
-        <v>-0.06084849881768094</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02415827482946555</v>
+      </c>
+      <c r="I28">
+        <v>-0.03173998446102672</v>
+      </c>
+      <c r="J28">
+        <v>-0.01680901476505682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.06084704659886587</v>
+        <v>-0.03812458482092564</v>
       </c>
       <c r="C29">
-        <v>0.0004818246272130046</v>
+        <v>-0.005202953416179571</v>
       </c>
       <c r="D29">
-        <v>0.04945972254321226</v>
+        <v>0.006393842152440839</v>
       </c>
       <c r="E29">
-        <v>0.02155877165869915</v>
+        <v>0.0002108572940071059</v>
       </c>
       <c r="F29">
-        <v>0.03728643584920262</v>
+        <v>-0.01108461536500777</v>
       </c>
       <c r="G29">
-        <v>0.03200122767209268</v>
+        <v>-0.02697120727869507</v>
       </c>
       <c r="H29">
-        <v>0.08944716521480162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.05594774776931398</v>
+      </c>
+      <c r="I29">
+        <v>-0.06520781062200028</v>
+      </c>
+      <c r="J29">
+        <v>0.05399782418386087</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1167637317614442</v>
+        <v>-0.1179090021042693</v>
       </c>
       <c r="C30">
-        <v>-0.02718743225761429</v>
+        <v>-0.07305016538414558</v>
       </c>
       <c r="D30">
-        <v>0.2257156482853848</v>
+        <v>0.006472694315467653</v>
       </c>
       <c r="E30">
-        <v>0.007184739580803764</v>
+        <v>0.04051053213762442</v>
       </c>
       <c r="F30">
-        <v>-0.09886182117477436</v>
+        <v>-0.01425471602187589</v>
       </c>
       <c r="G30">
-        <v>0.1626049634844994</v>
+        <v>0.03025635556263798</v>
       </c>
       <c r="H30">
-        <v>-0.03873893434288455</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1493023819958146</v>
+      </c>
+      <c r="I30">
+        <v>-0.15856784328336</v>
+      </c>
+      <c r="J30">
+        <v>-0.2630339245262447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.0562654190969909</v>
+        <v>-0.03666062741117814</v>
       </c>
       <c r="C31">
-        <v>0.02121779989458284</v>
+        <v>-0.01696845804544209</v>
       </c>
       <c r="D31">
-        <v>0.003185663229671081</v>
+        <v>-0.02035547756169451</v>
       </c>
       <c r="E31">
-        <v>-0.01906826970039789</v>
+        <v>0.01777363880084259</v>
       </c>
       <c r="F31">
-        <v>0.03917543462744846</v>
+        <v>0.001824755517250749</v>
       </c>
       <c r="G31">
-        <v>0.009425436728849112</v>
+        <v>-0.003455851150911101</v>
       </c>
       <c r="H31">
-        <v>0.02196304771796235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.005297129718829663</v>
+      </c>
+      <c r="I31">
+        <v>-0.03397488345408012</v>
+      </c>
+      <c r="J31">
+        <v>0.05980454979296913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.03181046955744449</v>
+        <v>-0.05675124453178377</v>
       </c>
       <c r="C32">
-        <v>-0.01120372208104785</v>
+        <v>-0.002576667929520803</v>
       </c>
       <c r="D32">
-        <v>0.08941009762096901</v>
+        <v>-0.01961290728837378</v>
       </c>
       <c r="E32">
-        <v>-0.04423624118861211</v>
+        <v>-0.01250942032203215</v>
       </c>
       <c r="F32">
-        <v>0.1203238036023774</v>
+        <v>-0.04308136583384369</v>
       </c>
       <c r="G32">
-        <v>0.02588091833730994</v>
+        <v>0.0428494696839436</v>
       </c>
       <c r="H32">
-        <v>-0.005467176989117988</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03432864531932852</v>
+      </c>
+      <c r="I32">
+        <v>-0.02266995629078812</v>
+      </c>
+      <c r="J32">
+        <v>-0.008628941647076531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.1124602652733547</v>
+        <v>-0.1103193439312761</v>
       </c>
       <c r="C33">
-        <v>0.01436808583406388</v>
+        <v>-0.05050963590501843</v>
       </c>
       <c r="D33">
-        <v>0.009585589814713177</v>
+        <v>0.001542769884893218</v>
       </c>
       <c r="E33">
-        <v>-0.02857626959987179</v>
+        <v>0.06526348987152819</v>
       </c>
       <c r="F33">
-        <v>0.02514002034186515</v>
+        <v>-0.03536075578763536</v>
       </c>
       <c r="G33">
-        <v>0.07416806366253706</v>
+        <v>-0.0005713889802016977</v>
       </c>
       <c r="H33">
-        <v>0.0632909664177241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0450361996556843</v>
+      </c>
+      <c r="I33">
+        <v>-0.04496840304795831</v>
+      </c>
+      <c r="J33">
+        <v>0.02328208807836827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.06874802889721279</v>
+        <v>-0.08384279657548899</v>
       </c>
       <c r="C34">
-        <v>0.04257252606732725</v>
+        <v>-0.0473817586466563</v>
       </c>
       <c r="D34">
-        <v>0.0108001624881692</v>
+        <v>-0.03460911491425494</v>
       </c>
       <c r="E34">
-        <v>0.001440844147356524</v>
+        <v>0.03089250919676131</v>
       </c>
       <c r="F34">
-        <v>0.02969910571022501</v>
+        <v>-0.04297621051353898</v>
       </c>
       <c r="G34">
-        <v>0.09567646446991072</v>
+        <v>-0.00808590998708272</v>
       </c>
       <c r="H34">
-        <v>-0.02308556449409056</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.09197936269137887</v>
+      </c>
+      <c r="I34">
+        <v>-0.09290389202351917</v>
+      </c>
+      <c r="J34">
+        <v>0.03018689120389424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.04455097781300026</v>
+        <v>-0.02265300837311314</v>
       </c>
       <c r="C35">
-        <v>0.008520996957493074</v>
+        <v>-0.01371929551625116</v>
       </c>
       <c r="D35">
-        <v>-0.0006982390479522612</v>
+        <v>0.005622131464864491</v>
       </c>
       <c r="E35">
-        <v>-0.01433805021371376</v>
+        <v>0.002360607740645822</v>
       </c>
       <c r="F35">
-        <v>-0.05435813166785664</v>
+        <v>-0.003966693355937554</v>
       </c>
       <c r="G35">
-        <v>0.04370645173012072</v>
+        <v>-0.007356214784444834</v>
       </c>
       <c r="H35">
-        <v>-0.02316864471081164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.03993469278132913</v>
+      </c>
+      <c r="I35">
+        <v>-0.03348760421819588</v>
+      </c>
+      <c r="J35">
+        <v>0.03726219301028898</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0400417168846211</v>
+        <v>-0.02986857992166196</v>
       </c>
       <c r="C36">
-        <v>2.801177536337158e-06</v>
+        <v>-0.002388301764525675</v>
       </c>
       <c r="D36">
-        <v>0.04281137750975138</v>
+        <v>0.007885573937380007</v>
       </c>
       <c r="E36">
-        <v>0.01139420171903844</v>
+        <v>-4.517922676425019e-05</v>
       </c>
       <c r="F36">
-        <v>0.003478327562904841</v>
+        <v>0.01325813807458679</v>
       </c>
       <c r="G36">
-        <v>0.05386510615021804</v>
+        <v>0.01404243774826231</v>
       </c>
       <c r="H36">
-        <v>0.04417237971030359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.02713592874245973</v>
+      </c>
+      <c r="I36">
+        <v>-0.05254178365982461</v>
+      </c>
+      <c r="J36">
+        <v>0.01282941606581748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05559741507027274</v>
+        <v>-0.01923774022176726</v>
       </c>
       <c r="C38">
-        <v>0.0156022830300028</v>
+        <v>-0.009816055715211828</v>
       </c>
       <c r="D38">
-        <v>0.01354371109399725</v>
+        <v>-0.009763703192040412</v>
       </c>
       <c r="E38">
-        <v>0.007845921186326819</v>
+        <v>0.0169014991639031</v>
       </c>
       <c r="F38">
-        <v>0.03153564216286134</v>
+        <v>0.01803809316597603</v>
       </c>
       <c r="G38">
-        <v>0.05589510831227178</v>
+        <v>-0.01644724961674455</v>
       </c>
       <c r="H38">
-        <v>-0.009840779577128048</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.006319497004281677</v>
+      </c>
+      <c r="I38">
+        <v>0.04571799747464758</v>
+      </c>
+      <c r="J38">
+        <v>0.0001579499463586796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.1083446278067484</v>
+        <v>-0.1390798870909059</v>
       </c>
       <c r="C39">
-        <v>0.03994583967031407</v>
+        <v>-0.08572281779674341</v>
       </c>
       <c r="D39">
-        <v>0.06980532900145951</v>
+        <v>-0.02507953790002403</v>
       </c>
       <c r="E39">
-        <v>0.006688885596778369</v>
+        <v>0.03311407836110691</v>
       </c>
       <c r="F39">
-        <v>0.009397979018718167</v>
+        <v>-0.1212846434733046</v>
       </c>
       <c r="G39">
-        <v>0.1399949026103247</v>
+        <v>-0.01536821966807755</v>
       </c>
       <c r="H39">
-        <v>-0.1166626767038468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1349800332526549</v>
+      </c>
+      <c r="I39">
+        <v>-0.07401149768886836</v>
+      </c>
+      <c r="J39">
+        <v>0.02463783496621691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.05022491902265819</v>
+        <v>-0.01859933252608855</v>
       </c>
       <c r="C40">
-        <v>0.02401852566639558</v>
+        <v>-0.02339414863388934</v>
       </c>
       <c r="D40">
-        <v>0.08431744661885139</v>
+        <v>-0.01955586431007399</v>
       </c>
       <c r="E40">
-        <v>-0.03973199810047481</v>
+        <v>0.00130709714835152</v>
       </c>
       <c r="F40">
-        <v>-0.0397929063329736</v>
+        <v>0.06930026768616368</v>
       </c>
       <c r="G40">
-        <v>0.2850749260246259</v>
+        <v>-0.005825912390297924</v>
       </c>
       <c r="H40">
-        <v>-0.08142745246885796</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.05258927681194951</v>
+      </c>
+      <c r="I40">
+        <v>-0.09769154207884044</v>
+      </c>
+      <c r="J40">
+        <v>-0.03643506481085608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.04859352610174933</v>
+        <v>-0.02706072693211907</v>
       </c>
       <c r="C41">
-        <v>0.02819511250219547</v>
+        <v>0.002645845247518646</v>
       </c>
       <c r="D41">
-        <v>-0.01453723455709633</v>
+        <v>-0.03235471904598775</v>
       </c>
       <c r="E41">
-        <v>0.009024925598846415</v>
+        <v>0.004625822565351682</v>
       </c>
       <c r="F41">
-        <v>0.03393374835640919</v>
+        <v>-0.01215273355006468</v>
       </c>
       <c r="G41">
-        <v>0.0557751530183908</v>
+        <v>-0.009649228141040762</v>
       </c>
       <c r="H41">
-        <v>-0.02564756610255027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.009029408643411584</v>
+      </c>
+      <c r="I41">
+        <v>-0.01528819319342984</v>
+      </c>
+      <c r="J41">
+        <v>0.03128723962040707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.07586752476929616</v>
+        <v>-0.04177704084974893</v>
       </c>
       <c r="C43">
-        <v>0.02539719542251618</v>
+        <v>0.003027935763354744</v>
       </c>
       <c r="D43">
-        <v>0.02751445511634095</v>
+        <v>-0.03868926731224711</v>
       </c>
       <c r="E43">
-        <v>0.008958424731138084</v>
+        <v>0.0341598817369895</v>
       </c>
       <c r="F43">
-        <v>0.03021734753710293</v>
+        <v>0.001478727938722156</v>
       </c>
       <c r="G43">
-        <v>0.004368066805765001</v>
+        <v>-0.001563774579149137</v>
       </c>
       <c r="H43">
-        <v>-0.01984149226247259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.009483873054757379</v>
+      </c>
+      <c r="I43">
+        <v>-0.02117345033817875</v>
+      </c>
+      <c r="J43">
+        <v>0.04905069002881345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.07954788367644559</v>
+        <v>-0.1256909350437086</v>
       </c>
       <c r="C44">
-        <v>0.00964603923335655</v>
+        <v>-0.09241395945598561</v>
       </c>
       <c r="D44">
-        <v>0.07281896286024085</v>
+        <v>0.0009545324301991241</v>
       </c>
       <c r="E44">
-        <v>0.09215645309799414</v>
+        <v>0.04232782547851893</v>
       </c>
       <c r="F44">
-        <v>0.07439009939088316</v>
+        <v>0.07369148384980176</v>
       </c>
       <c r="G44">
-        <v>0.08498647089078719</v>
+        <v>-0.09939012872103606</v>
       </c>
       <c r="H44">
-        <v>-0.01167351252270964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.173234711006737</v>
+      </c>
+      <c r="I44">
+        <v>-0.1585778550933863</v>
+      </c>
+      <c r="J44">
+        <v>-0.1281285395020756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.05314697955580308</v>
+        <v>-0.02502514888595062</v>
       </c>
       <c r="C46">
-        <v>0.03782768127300823</v>
+        <v>0.006913270128735076</v>
       </c>
       <c r="D46">
-        <v>0.04851346646102484</v>
+        <v>-0.02313437782024898</v>
       </c>
       <c r="E46">
-        <v>-0.001277055168881677</v>
+        <v>0.03008853798371607</v>
       </c>
       <c r="F46">
-        <v>0.02321612698316916</v>
+        <v>0.0305052533733894</v>
       </c>
       <c r="G46">
-        <v>0.01979910809758451</v>
+        <v>-0.02170992443392217</v>
       </c>
       <c r="H46">
-        <v>0.08618787715491268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.03851823251924073</v>
+      </c>
+      <c r="I46">
+        <v>-0.03951681824044388</v>
+      </c>
+      <c r="J46">
+        <v>0.05054463511510297</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.05041640097087241</v>
+        <v>-0.03989289191411356</v>
       </c>
       <c r="C47">
-        <v>-0.0002253172106669191</v>
+        <v>0.002135384466124773</v>
       </c>
       <c r="D47">
-        <v>0.06155687542426025</v>
+        <v>-0.01290674444662706</v>
       </c>
       <c r="E47">
-        <v>-0.02773956267136408</v>
+        <v>0.008307167177272862</v>
       </c>
       <c r="F47">
-        <v>-5.23495776084084e-05</v>
+        <v>0.0151516219673892</v>
       </c>
       <c r="G47">
-        <v>0.004412918788866094</v>
+        <v>0.007116746637662573</v>
       </c>
       <c r="H47">
-        <v>0.03033463953862568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.02458546673789401</v>
+      </c>
+      <c r="I47">
+        <v>-0.03832470642666252</v>
+      </c>
+      <c r="J47">
+        <v>0.04216982714339939</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.04278817986383713</v>
+        <v>-0.04016401209872159</v>
       </c>
       <c r="C48">
-        <v>0.001892393975725049</v>
+        <v>-0.004329255553388088</v>
       </c>
       <c r="D48">
-        <v>0.03520492232814825</v>
+        <v>0.01335858565457483</v>
       </c>
       <c r="E48">
-        <v>-0.03875338055360506</v>
+        <v>0.003453715963221952</v>
       </c>
       <c r="F48">
-        <v>-0.00701363911631152</v>
+        <v>0.00322339339394857</v>
       </c>
       <c r="G48">
-        <v>0.04714853991902185</v>
+        <v>0.01422323665823899</v>
       </c>
       <c r="H48">
-        <v>0.01095652860244052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.04229063372814101</v>
+      </c>
+      <c r="I48">
+        <v>-0.05218526282123983</v>
+      </c>
+      <c r="J48">
+        <v>0.03075187804665484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>-0.2368558270042216</v>
+        <v>-0.2298709828640244</v>
       </c>
       <c r="C49">
-        <v>0.06364457981638824</v>
+        <v>-0.001573130437508936</v>
       </c>
       <c r="D49">
-        <v>-0.08945383257530234</v>
+        <v>-0.07092087918835174</v>
       </c>
       <c r="E49">
-        <v>0.03413483652290154</v>
+        <v>-0.0202227723712106</v>
       </c>
       <c r="F49">
-        <v>-0.0963103820051809</v>
+        <v>-0.0378717440147693</v>
       </c>
       <c r="G49">
-        <v>-0.129288214682019</v>
+        <v>-0.06376543208731793</v>
       </c>
       <c r="H49">
-        <v>-0.08301129960023507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1325421659631904</v>
+      </c>
+      <c r="I49">
+        <v>0.2202701490364823</v>
+      </c>
+      <c r="J49">
+        <v>-0.1919245897891549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.05620419899969727</v>
+        <v>-0.04390591562886254</v>
       </c>
       <c r="C50">
-        <v>0.01384008277413172</v>
+        <v>-0.01011409143930585</v>
       </c>
       <c r="D50">
-        <v>0.01421455724791335</v>
+        <v>-0.02601802555712472</v>
       </c>
       <c r="E50">
-        <v>-0.02433616071789524</v>
+        <v>0.007766847820282116</v>
       </c>
       <c r="F50">
-        <v>0.04444543602452441</v>
+        <v>-0.003382919176284971</v>
       </c>
       <c r="G50">
-        <v>0.005262534415454192</v>
+        <v>-0.004352516897200293</v>
       </c>
       <c r="H50">
-        <v>0.0545716378646051</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.04062823392695127</v>
+      </c>
+      <c r="I50">
+        <v>-0.03695930520923418</v>
+      </c>
+      <c r="J50">
+        <v>0.03133043648872885</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.03523095484931323</v>
+        <v>-0.01621210968211363</v>
       </c>
       <c r="C51">
-        <v>0.009652848506747042</v>
+        <v>0.008239408496274048</v>
       </c>
       <c r="D51">
-        <v>-2.665957944579111e-05</v>
+        <v>-0.001966508034077683</v>
       </c>
       <c r="E51">
-        <v>0.02371374014619051</v>
+        <v>0.01813583187010199</v>
       </c>
       <c r="F51">
-        <v>0.02223747704875689</v>
+        <v>0.003927797199962313</v>
       </c>
       <c r="G51">
-        <v>-0.0194903373327019</v>
+        <v>-0.02209753898178334</v>
       </c>
       <c r="H51">
-        <v>-0.04084636265867976</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.02276446393769221</v>
+      </c>
+      <c r="I51">
+        <v>0.01136887982284072</v>
+      </c>
+      <c r="J51">
+        <v>-0.009703072397553148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.09764731904135143</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06965063617707626</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.02633912440167388</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0238367159292814</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02349102760822247</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.002160689962198503</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.08820111611585878</v>
+      </c>
+      <c r="I52">
+        <v>0.008320640980525073</v>
+      </c>
+      <c r="J52">
+        <v>0.1243716851592602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1613333343986552</v>
+        <v>-0.1578307304050717</v>
       </c>
       <c r="C53">
-        <v>-0.006759667668601788</v>
+        <v>-0.01308389312317634</v>
       </c>
       <c r="D53">
-        <v>-0.07039063770624833</v>
+        <v>0.006285086634867817</v>
       </c>
       <c r="E53">
-        <v>-0.04949735616309826</v>
+        <v>0.0009636041359732442</v>
       </c>
       <c r="F53">
-        <v>0.2105684417353162</v>
+        <v>-0.0002140435450184359</v>
       </c>
       <c r="G53">
-        <v>-0.0276329325256176</v>
+        <v>-0.0291992256268877</v>
       </c>
       <c r="H53">
-        <v>0.03497294558660827</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.01591319388511003</v>
+      </c>
+      <c r="I53">
+        <v>0.09685424610567771</v>
+      </c>
+      <c r="J53">
+        <v>0.1926158349531594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.05594339199325032</v>
+        <v>-0.05278536354767475</v>
       </c>
       <c r="C54">
-        <v>0.006297027507448393</v>
+        <v>-0.01055345923449664</v>
       </c>
       <c r="D54">
-        <v>0.03994785193211788</v>
+        <v>-0.01305599650998485</v>
       </c>
       <c r="E54">
-        <v>0.005200798614116241</v>
+        <v>0.009597586407520073</v>
       </c>
       <c r="F54">
-        <v>0.01784004485575528</v>
+        <v>0.02809381672146873</v>
       </c>
       <c r="G54">
-        <v>0.05311857400692061</v>
+        <v>0.007047396346004224</v>
       </c>
       <c r="H54">
-        <v>0.1024773460464937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.02810108978545079</v>
+      </c>
+      <c r="I54">
+        <v>-0.130073480105238</v>
+      </c>
+      <c r="J54">
+        <v>0.04871733078059422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09546045085694657</v>
+        <v>-0.08945925318950877</v>
       </c>
       <c r="C55">
-        <v>0.006876029064743185</v>
+        <v>-0.02272661458043821</v>
       </c>
       <c r="D55">
-        <v>-0.0168716559379453</v>
+        <v>0.0194298625366302</v>
       </c>
       <c r="E55">
-        <v>-0.02802831917830399</v>
+        <v>0.0385297597354279</v>
       </c>
       <c r="F55">
-        <v>0.1562785018448517</v>
+        <v>-0.02587851337665463</v>
       </c>
       <c r="G55">
-        <v>0.0148727516983646</v>
+        <v>-0.007754278521632223</v>
       </c>
       <c r="H55">
-        <v>0.0624312951840405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.02286034147373331</v>
+      </c>
+      <c r="I55">
+        <v>0.009738406367272922</v>
+      </c>
+      <c r="J55">
+        <v>0.1359744156346534</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1636223295914535</v>
+        <v>-0.1625962113818501</v>
       </c>
       <c r="C56">
-        <v>-0.007810280011384178</v>
+        <v>-0.02743621763539488</v>
       </c>
       <c r="D56">
-        <v>-0.08084448527639912</v>
+        <v>-0.01050905362618582</v>
       </c>
       <c r="E56">
-        <v>-0.08398883129646803</v>
+        <v>0.0214286288046054</v>
       </c>
       <c r="F56">
-        <v>0.2033155485428232</v>
+        <v>-0.02772461267666677</v>
       </c>
       <c r="G56">
-        <v>-0.0144346693631512</v>
+        <v>-0.02754229360505586</v>
       </c>
       <c r="H56">
-        <v>0.04628537323179269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.05624437736990858</v>
+      </c>
+      <c r="I56">
+        <v>0.04308453817682707</v>
+      </c>
+      <c r="J56">
+        <v>0.1588175800643716</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01969646700253938</v>
+        <v>-0.03545728804145147</v>
       </c>
       <c r="C58">
-        <v>0.08301813906191337</v>
+        <v>-0.008017481981854197</v>
       </c>
       <c r="D58">
-        <v>0.2323128170216322</v>
+        <v>-0.0175959706804166</v>
       </c>
       <c r="E58">
-        <v>-0.0366015017638486</v>
+        <v>0.01011913048487938</v>
       </c>
       <c r="F58">
-        <v>-0.4032143653246498</v>
+        <v>0.08519306343797639</v>
       </c>
       <c r="G58">
-        <v>0.1103253250056933</v>
+        <v>0.004170270015859355</v>
       </c>
       <c r="H58">
-        <v>-0.1374065147803762</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.09512918749603545</v>
+      </c>
+      <c r="I58">
+        <v>0.005758274375934094</v>
+      </c>
+      <c r="J58">
+        <v>-0.01824996034267577</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.1465387717847247</v>
+        <v>-0.1509768068661384</v>
       </c>
       <c r="C59">
-        <v>-0.3850883305967782</v>
+        <v>0.2931472553320003</v>
       </c>
       <c r="D59">
-        <v>-0.04199401456341532</v>
+        <v>0.09532045550501606</v>
       </c>
       <c r="E59">
-        <v>0.0585325164596748</v>
+        <v>0.0237860207578368</v>
       </c>
       <c r="F59">
-        <v>0.05181850763495613</v>
+        <v>-0.05604152367391892</v>
       </c>
       <c r="G59">
-        <v>0.01558407920829835</v>
+        <v>-0.03053003841920231</v>
       </c>
       <c r="H59">
-        <v>-0.03576754000166863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.0638081685520132</v>
+      </c>
+      <c r="I59">
+        <v>-0.04534320377402174</v>
+      </c>
+      <c r="J59">
+        <v>0.0341225791848908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.2760222452910556</v>
+        <v>-0.2789447696381953</v>
       </c>
       <c r="C60">
-        <v>0.0497993897033777</v>
+        <v>-0.1037054061213538</v>
       </c>
       <c r="D60">
-        <v>-0.05663381710936033</v>
+        <v>-0.02906362830106539</v>
       </c>
       <c r="E60">
-        <v>0.04749799362006691</v>
+        <v>-0.05742444136632256</v>
       </c>
       <c r="F60">
-        <v>-0.05954863935696692</v>
+        <v>-0.02640835658715653</v>
       </c>
       <c r="G60">
-        <v>-0.1484497607504571</v>
+        <v>-0.1204112775771286</v>
       </c>
       <c r="H60">
-        <v>-0.04100246265508306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.0841410369505842</v>
+      </c>
+      <c r="I60">
+        <v>0.1426746017389241</v>
+      </c>
+      <c r="J60">
+        <v>-0.3190102175351163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.09503593516528734</v>
+        <v>-0.1155606941398521</v>
       </c>
       <c r="C61">
-        <v>0.02109878894677079</v>
+        <v>-0.05285256560123595</v>
       </c>
       <c r="D61">
-        <v>0.02403304527772637</v>
+        <v>0.003370065255983057</v>
       </c>
       <c r="E61">
-        <v>0.009882423593500445</v>
+        <v>0.02104913920102671</v>
       </c>
       <c r="F61">
-        <v>0.03009391270756185</v>
+        <v>-0.06533491067112981</v>
       </c>
       <c r="G61">
-        <v>0.06001903452219583</v>
+        <v>-0.02270813592603976</v>
       </c>
       <c r="H61">
-        <v>-0.05243998471561103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.08225804999044474</v>
+      </c>
+      <c r="I61">
+        <v>-0.1220506613193543</v>
+      </c>
+      <c r="J61">
+        <v>0.07118107876634727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>-0.143124730218478</v>
+        <v>-0.1581766905546699</v>
       </c>
       <c r="C62">
-        <v>0.02410625120363153</v>
+        <v>-0.03151972235845842</v>
       </c>
       <c r="D62">
-        <v>-0.1357246780020582</v>
+        <v>-0.00537473204048552</v>
       </c>
       <c r="E62">
-        <v>-0.07615563002036639</v>
+        <v>0.008735650350560578</v>
       </c>
       <c r="F62">
-        <v>0.1712754498228062</v>
+        <v>-0.02811091396076165</v>
       </c>
       <c r="G62">
-        <v>-0.0004413822893132667</v>
+        <v>-0.002582590838587326</v>
       </c>
       <c r="H62">
-        <v>0.06152369174085784</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.0393941607128554</v>
+      </c>
+      <c r="I62">
+        <v>0.07566197274917942</v>
+      </c>
+      <c r="J62">
+        <v>0.1433169884704627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04440355435348119</v>
+        <v>-0.04340861479337997</v>
       </c>
       <c r="C63">
-        <v>0.01762636954747126</v>
+        <v>-0.005165856902701998</v>
       </c>
       <c r="D63">
-        <v>0.005972582751019829</v>
+        <v>0.006389081769752803</v>
       </c>
       <c r="E63">
-        <v>-0.01998633510030638</v>
+        <v>0.0161563559116666</v>
       </c>
       <c r="F63">
-        <v>0.00853843240572005</v>
+        <v>-0.00307197448769495</v>
       </c>
       <c r="G63">
-        <v>0.04029626694758488</v>
+        <v>0.03948352670779808</v>
       </c>
       <c r="H63">
-        <v>0.1020353927981388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.02560775987791037</v>
+      </c>
+      <c r="I63">
+        <v>-0.05790776854866244</v>
+      </c>
+      <c r="J63">
+        <v>0.03481813614091459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.1114255509971301</v>
+        <v>-0.09953505747827843</v>
       </c>
       <c r="C64">
-        <v>0.01018260435108013</v>
+        <v>-0.01274923643594843</v>
       </c>
       <c r="D64">
-        <v>0.04949490495627878</v>
+        <v>-0.01481500944106507</v>
       </c>
       <c r="E64">
-        <v>0.02869466254680492</v>
+        <v>-0.000185053630726528</v>
       </c>
       <c r="F64">
-        <v>-0.001545271448834946</v>
+        <v>0.004293877645776109</v>
       </c>
       <c r="G64">
-        <v>0.04618036026581918</v>
+        <v>-0.0547341405866412</v>
       </c>
       <c r="H64">
-        <v>0.003163354425137795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.03494301397124943</v>
+      </c>
+      <c r="I64">
+        <v>-0.05619878387772845</v>
+      </c>
+      <c r="J64">
+        <v>-0.05969125653812619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.1129370512334752</v>
+        <v>-0.1187680843801614</v>
       </c>
       <c r="C65">
-        <v>0.02736444800235048</v>
+        <v>-0.005737253778523738</v>
       </c>
       <c r="D65">
-        <v>0.06106441506717046</v>
+        <v>0.01930295996410356</v>
       </c>
       <c r="E65">
-        <v>-0.005404535360290346</v>
+        <v>-0.01523306364495781</v>
       </c>
       <c r="F65">
-        <v>-0.3255237031106554</v>
+        <v>0.01078742468706172</v>
       </c>
       <c r="G65">
-        <v>-0.1218914823468246</v>
+        <v>0.07312991587047915</v>
       </c>
       <c r="H65">
-        <v>0.6376844635980933</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.02045712921338739</v>
+      </c>
+      <c r="I65">
+        <v>-0.01438633216125479</v>
+      </c>
+      <c r="J65">
+        <v>-0.2787352419076761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1572074219874771</v>
+        <v>-0.1670307797955484</v>
       </c>
       <c r="C66">
-        <v>0.04800868384934222</v>
+        <v>-0.1047598846689603</v>
       </c>
       <c r="D66">
-        <v>0.02938974029382149</v>
+        <v>-0.04674098414312905</v>
       </c>
       <c r="E66">
-        <v>0.05600196580409104</v>
+        <v>0.04267822834091979</v>
       </c>
       <c r="F66">
-        <v>0.04496930624698764</v>
+        <v>-0.1355175494119383</v>
       </c>
       <c r="G66">
-        <v>0.2662313015451719</v>
+        <v>-0.03079454949420357</v>
       </c>
       <c r="H66">
-        <v>-0.2050157524653591</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1289230759376173</v>
+      </c>
+      <c r="I66">
+        <v>-0.07618821566342557</v>
+      </c>
+      <c r="J66">
+        <v>0.02653888650361108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.1095934619220185</v>
+        <v>-0.07929556743752601</v>
       </c>
       <c r="C67">
-        <v>0.0340822566971615</v>
+        <v>-0.03829467582747285</v>
       </c>
       <c r="D67">
-        <v>-0.005577295233166794</v>
+        <v>0.009847024363370158</v>
       </c>
       <c r="E67">
-        <v>0.03771914581642602</v>
+        <v>0.07971578191687931</v>
       </c>
       <c r="F67">
-        <v>0.05804738336001333</v>
+        <v>-0.0008095012909510202</v>
       </c>
       <c r="G67">
-        <v>0.03365884229933632</v>
+        <v>-0.02936997022743493</v>
       </c>
       <c r="H67">
-        <v>-0.01554984263217285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.0721689714715687</v>
+      </c>
+      <c r="I67">
+        <v>0.02212860206430772</v>
+      </c>
+      <c r="J67">
+        <v>-0.02231972436906215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.0356045114454247</v>
+        <v>-0.06779611039829109</v>
       </c>
       <c r="C68">
-        <v>-0.2931620651140222</v>
+        <v>0.2713041182387563</v>
       </c>
       <c r="D68">
-        <v>-0.00490454063866961</v>
+        <v>0.102705488637033</v>
       </c>
       <c r="E68">
-        <v>-0.02037654846397396</v>
+        <v>0.0002497088466414158</v>
       </c>
       <c r="F68">
-        <v>-0.01103189261191023</v>
+        <v>-0.02990835981092565</v>
       </c>
       <c r="G68">
-        <v>-0.01636739255061346</v>
+        <v>0.01505512686313343</v>
       </c>
       <c r="H68">
-        <v>0.02776334880596219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.02861835873157861</v>
+      </c>
+      <c r="I68">
+        <v>-0.04762918083719721</v>
+      </c>
+      <c r="J68">
+        <v>-0.01326588456980297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.0508899345420677</v>
+        <v>-0.03884004605657772</v>
       </c>
       <c r="C69">
-        <v>0.01112186964188182</v>
+        <v>-0.003340997640380188</v>
       </c>
       <c r="D69">
-        <v>-0.009919447228759872</v>
+        <v>0.01119256894479292</v>
       </c>
       <c r="E69">
-        <v>-0.03337909272669798</v>
+        <v>0.02237494324901335</v>
       </c>
       <c r="F69">
-        <v>-0.01219736107921295</v>
+        <v>5.687469839560374e-05</v>
       </c>
       <c r="G69">
-        <v>0.01946209384154076</v>
+        <v>-0.001810472643541217</v>
       </c>
       <c r="H69">
-        <v>0.0176271134524867</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.01152483750157779</v>
+      </c>
+      <c r="I69">
+        <v>0.001354467239375335</v>
+      </c>
+      <c r="J69">
+        <v>0.01842269815805458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>-0.0825868842204011</v>
+        <v>-0.03793710646335405</v>
       </c>
       <c r="C70">
-        <v>0.01049198492114415</v>
+        <v>0.005908313007146317</v>
       </c>
       <c r="D70">
-        <v>-0.007414649071578287</v>
+        <v>0.02209053361243667</v>
       </c>
       <c r="E70">
-        <v>0.06217220946287749</v>
+        <v>0.02142057343254992</v>
       </c>
       <c r="F70">
-        <v>0.003971187252775225</v>
+        <v>-0.02626931112806774</v>
       </c>
       <c r="G70">
-        <v>-0.0432837276431644</v>
+        <v>-0.05534396157047414</v>
       </c>
       <c r="H70">
-        <v>-0.0004716997585760909</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.02430291955254305</v>
+      </c>
+      <c r="I70">
+        <v>0.009162171659738911</v>
+      </c>
+      <c r="J70">
+        <v>0.002231799475461174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.04705187921181208</v>
+        <v>-0.0802133849157641</v>
       </c>
       <c r="C71">
-        <v>-0.3006200591663569</v>
+        <v>0.2848278160843241</v>
       </c>
       <c r="D71">
-        <v>0.001739762495670137</v>
+        <v>0.1075598724513464</v>
       </c>
       <c r="E71">
-        <v>0.001243213104113002</v>
+        <v>0.004397085923198779</v>
       </c>
       <c r="F71">
-        <v>-0.01145528018554059</v>
+        <v>-0.02227097877645654</v>
       </c>
       <c r="G71">
-        <v>0.00892365665003767</v>
+        <v>-0.01144273463159599</v>
       </c>
       <c r="H71">
-        <v>0.007985281629931404</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.03615209604151565</v>
+      </c>
+      <c r="I71">
+        <v>-0.05083297242881585</v>
+      </c>
+      <c r="J71">
+        <v>-0.02917843559078851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1324520469447888</v>
+        <v>-0.1377045147893699</v>
       </c>
       <c r="C72">
-        <v>-0.01999567828910417</v>
+        <v>0.02634459096289937</v>
       </c>
       <c r="D72">
-        <v>-0.07817310855040774</v>
+        <v>-0.01179724222070814</v>
       </c>
       <c r="E72">
-        <v>-0.1202649335766518</v>
+        <v>0.01226138817755344</v>
       </c>
       <c r="F72">
-        <v>-0.03358349920280802</v>
+        <v>-0.01373436252641188</v>
       </c>
       <c r="G72">
-        <v>0.08923484284088584</v>
+        <v>0.04761680806831719</v>
       </c>
       <c r="H72">
-        <v>0.110555255188452</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.006645169285172091</v>
+      </c>
+      <c r="I72">
+        <v>-0.0006065246340815567</v>
+      </c>
+      <c r="J72">
+        <v>0.0060971942947874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2835207520987327</v>
+        <v>-0.2463554713845661</v>
       </c>
       <c r="C73">
-        <v>0.1450109446903093</v>
+        <v>-0.06260100471446906</v>
       </c>
       <c r="D73">
-        <v>-0.1378442810867765</v>
+        <v>-0.05828814600690414</v>
       </c>
       <c r="E73">
-        <v>0.1082481934464666</v>
+        <v>0.04783624063681063</v>
       </c>
       <c r="F73">
-        <v>-0.3074705878102796</v>
+        <v>-0.1001304003402373</v>
       </c>
       <c r="G73">
-        <v>-0.2835497716413353</v>
+        <v>-0.1827079147869605</v>
       </c>
       <c r="H73">
-        <v>-0.2183096195694545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1876825266027384</v>
+      </c>
+      <c r="I73">
+        <v>0.3705687763770131</v>
+      </c>
+      <c r="J73">
+        <v>-0.2488206509849094</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1011493110703446</v>
+        <v>-0.1101369197956805</v>
       </c>
       <c r="C74">
-        <v>0.03126200550274055</v>
+        <v>-0.02315692482774697</v>
       </c>
       <c r="D74">
-        <v>-0.02691398716250119</v>
+        <v>-0.02879199758386238</v>
       </c>
       <c r="E74">
-        <v>-0.01939570680745358</v>
+        <v>0.02712326874528635</v>
       </c>
       <c r="F74">
-        <v>0.1046197787679271</v>
+        <v>-0.007646952350025532</v>
       </c>
       <c r="G74">
-        <v>-0.03140708844029151</v>
+        <v>-0.009444282852493852</v>
       </c>
       <c r="H74">
-        <v>0.0274602189002006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.06697122907954918</v>
+      </c>
+      <c r="I74">
+        <v>0.07241903585882993</v>
+      </c>
+      <c r="J74">
+        <v>0.1129005185066387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09285891767328669</v>
+        <v>-0.1174862902000407</v>
       </c>
       <c r="C75">
-        <v>0.01842909500420544</v>
+        <v>-0.03296778932231476</v>
       </c>
       <c r="D75">
-        <v>-0.05206238764828278</v>
+        <v>-0.02265677234557826</v>
       </c>
       <c r="E75">
-        <v>-0.0704611085475749</v>
+        <v>0.01690466172080017</v>
       </c>
       <c r="F75">
-        <v>0.08587555849237231</v>
+        <v>-0.007176765092871214</v>
       </c>
       <c r="G75">
-        <v>-0.04381536133404041</v>
+        <v>0.02209952802004138</v>
       </c>
       <c r="H75">
-        <v>0.0140528267628737</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.009288745907549729</v>
+      </c>
+      <c r="I75">
+        <v>0.04110750273668313</v>
+      </c>
+      <c r="J75">
+        <v>0.1352847477714001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.1391367707378781</v>
+        <v>-0.04710617289280897</v>
       </c>
       <c r="C76">
-        <v>0.02432302081450238</v>
+        <v>0.0004598428077035643</v>
       </c>
       <c r="D76">
-        <v>-0.01713088009137324</v>
+        <v>-0.01225890438384204</v>
       </c>
       <c r="E76">
-        <v>-0.05497623143757975</v>
+        <v>0.03661941366114513</v>
       </c>
       <c r="F76">
-        <v>0.2291250900713458</v>
+        <v>0.004866973058467921</v>
       </c>
       <c r="G76">
-        <v>-0.07493242863269986</v>
+        <v>-0.02932860235546547</v>
       </c>
       <c r="H76">
-        <v>0.03306824299359448</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.0377035797571068</v>
+      </c>
+      <c r="I76">
+        <v>0.04548227033189441</v>
+      </c>
+      <c r="J76">
+        <v>0.09252236660543822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.08197237657794963</v>
+        <v>-0.08323441177846319</v>
       </c>
       <c r="C77">
-        <v>-0.007995466826161842</v>
+        <v>-0.07666405297825486</v>
       </c>
       <c r="D77">
-        <v>0.1210288402692956</v>
+        <v>-0.01897591336541445</v>
       </c>
       <c r="E77">
-        <v>0.1141814805864569</v>
+        <v>-0.004757098449744231</v>
       </c>
       <c r="F77">
-        <v>-0.2327116776343454</v>
+        <v>0.01244248804854671</v>
       </c>
       <c r="G77">
-        <v>0.1547913115955481</v>
+        <v>-0.04826099946498206</v>
       </c>
       <c r="H77">
-        <v>-0.1333120147523549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.01994422734775696</v>
+      </c>
+      <c r="I77">
+        <v>-0.2775346915775622</v>
+      </c>
+      <c r="J77">
+        <v>-0.3305080580215871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.2265944326647444</v>
+        <v>-0.131193048389247</v>
       </c>
       <c r="C78">
-        <v>0.04755897794491609</v>
+        <v>0.009390699535266606</v>
       </c>
       <c r="D78">
-        <v>0.2121591548212257</v>
+        <v>-0.1649571923665949</v>
       </c>
       <c r="E78">
-        <v>0.0578123600881714</v>
+        <v>0.2313887128715774</v>
       </c>
       <c r="F78">
-        <v>-0.01581945245694518</v>
+        <v>0.2327541127023994</v>
       </c>
       <c r="G78">
-        <v>0.1492563652036684</v>
+        <v>0.1272555591938076</v>
       </c>
       <c r="H78">
-        <v>0.08354822660899758</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.7426384524652029</v>
+      </c>
+      <c r="I78">
+        <v>-0.3762588576874913</v>
+      </c>
+      <c r="J78">
+        <v>0.1742461778447959</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.1375289692182676</v>
+        <v>-0.1406633864372851</v>
       </c>
       <c r="C79">
-        <v>0.006378415697577595</v>
+        <v>-0.02544816103052585</v>
       </c>
       <c r="D79">
-        <v>-0.03427417644519935</v>
+        <v>-0.04515590006762416</v>
       </c>
       <c r="E79">
-        <v>-0.04858859961756994</v>
+        <v>0.008255300055570071</v>
       </c>
       <c r="F79">
-        <v>0.1252859248359484</v>
+        <v>-0.0193109119397814</v>
       </c>
       <c r="G79">
-        <v>0.01442195332840591</v>
+        <v>-0.01582507953587134</v>
       </c>
       <c r="H79">
-        <v>0.05418906746244973</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.07217929554472047</v>
+      </c>
+      <c r="I79">
+        <v>0.03578773412688274</v>
+      </c>
+      <c r="J79">
+        <v>0.1063691900605974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.03507331336544323</v>
+        <v>-0.07417349490469523</v>
       </c>
       <c r="C80">
-        <v>0.006158242168576982</v>
+        <v>-0.05619495882588618</v>
       </c>
       <c r="D80">
-        <v>-0.02778425977956149</v>
+        <v>0.009236227788895459</v>
       </c>
       <c r="E80">
-        <v>0.05126266571300038</v>
+        <v>0.02191424123854115</v>
       </c>
       <c r="F80">
-        <v>-0.01716976179512291</v>
+        <v>-0.05388078540973636</v>
       </c>
       <c r="G80">
-        <v>0.05646118337851067</v>
+        <v>-0.000789636997132008</v>
       </c>
       <c r="H80">
-        <v>0.1226985786946715</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01004670956450579</v>
+      </c>
+      <c r="I80">
+        <v>-0.04521754784842746</v>
+      </c>
+      <c r="J80">
+        <v>0.1790867739174723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1119296704040949</v>
+        <v>-0.1380326654176845</v>
       </c>
       <c r="C81">
-        <v>-0.001632642489771613</v>
+        <v>-0.03093447688319089</v>
       </c>
       <c r="D81">
-        <v>-0.02213332631499028</v>
+        <v>-0.03324905124256763</v>
       </c>
       <c r="E81">
-        <v>-0.03105876813511226</v>
+        <v>0.02019048183523891</v>
       </c>
       <c r="F81">
-        <v>0.1283547276213926</v>
+        <v>-0.00441621589135245</v>
       </c>
       <c r="G81">
-        <v>-0.03201911783299837</v>
+        <v>-0.00765079407010969</v>
       </c>
       <c r="H81">
-        <v>-0.007490468474500481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.05407805201588515</v>
+      </c>
+      <c r="I81">
+        <v>0.01305089507853325</v>
+      </c>
+      <c r="J81">
+        <v>0.1656605179133054</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.1119437384210962</v>
+        <v>-0.1564770172252209</v>
       </c>
       <c r="C82">
-        <v>0.01882574257521485</v>
+        <v>-0.04256445995031086</v>
       </c>
       <c r="D82">
-        <v>-0.04438538574789701</v>
+        <v>0.00370585028565022</v>
       </c>
       <c r="E82">
-        <v>0.04443594280907411</v>
+        <v>0.0056950943591742</v>
       </c>
       <c r="F82">
-        <v>0.2587930263263338</v>
+        <v>-0.04743109646342406</v>
       </c>
       <c r="G82">
-        <v>-0.001046435258674979</v>
+        <v>-0.04735580715881683</v>
       </c>
       <c r="H82">
-        <v>0.03616153912315261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.07300985221324621</v>
+      </c>
+      <c r="I82">
+        <v>0.09500943350659215</v>
+      </c>
+      <c r="J82">
+        <v>0.2231308199780419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.1128633556771096</v>
+        <v>-0.08914450271292053</v>
       </c>
       <c r="C83">
-        <v>0.04299560207448131</v>
+        <v>-0.05253795866045004</v>
       </c>
       <c r="D83">
-        <v>-0.003623404001293909</v>
+        <v>-0.01092956925726474</v>
       </c>
       <c r="E83">
-        <v>0.09938184453217366</v>
+        <v>-0.03041370800160223</v>
       </c>
       <c r="F83">
-        <v>-0.03624103891645406</v>
+        <v>0.03563770800905777</v>
       </c>
       <c r="G83">
-        <v>0.05269492638435792</v>
+        <v>0.01113425181273643</v>
       </c>
       <c r="H83">
-        <v>-0.07697218520683112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>4.440737463674341e-05</v>
+      </c>
+      <c r="I83">
+        <v>-0.08260796287203748</v>
+      </c>
+      <c r="J83">
+        <v>0.04324506577804064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.05035103904483628</v>
+        <v>-0.06714648932145753</v>
       </c>
       <c r="C84">
-        <v>0.0253699338522601</v>
+        <v>-0.006439833380878567</v>
       </c>
       <c r="D84">
-        <v>0.01600275354536351</v>
+        <v>0.01202275133507285</v>
       </c>
       <c r="E84">
-        <v>-0.05401628942353921</v>
+        <v>-0.03527365169848309</v>
       </c>
       <c r="F84">
-        <v>0.05605194053005241</v>
+        <v>-0.03225165066920355</v>
       </c>
       <c r="G84">
-        <v>-0.04223267160674587</v>
+        <v>-0.03442766031153982</v>
       </c>
       <c r="H84">
-        <v>0.003593866582258697</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.01013794594806161</v>
+      </c>
+      <c r="I84">
+        <v>0.02039789496428225</v>
+      </c>
+      <c r="J84">
+        <v>-0.0385603403935476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.1066198565251033</v>
+        <v>-0.1244824567695188</v>
       </c>
       <c r="C85">
-        <v>0.01309087805474457</v>
+        <v>-0.02200283340100724</v>
       </c>
       <c r="D85">
-        <v>-0.0461101697304073</v>
+        <v>-0.01850167497516139</v>
       </c>
       <c r="E85">
-        <v>-0.07430667922653482</v>
+        <v>0.01538975880716266</v>
       </c>
       <c r="F85">
-        <v>0.1447197628742441</v>
+        <v>-0.01219882714499563</v>
       </c>
       <c r="G85">
-        <v>0.02343292589382142</v>
+        <v>-0.01513626925389721</v>
       </c>
       <c r="H85">
-        <v>0.08603016656961288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.04799660835010523</v>
+      </c>
+      <c r="I85">
+        <v>0.01316615812429791</v>
+      </c>
+      <c r="J85">
+        <v>0.1405084929616937</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.06835833978620956</v>
+        <v>-0.1171018068932476</v>
       </c>
       <c r="C86">
-        <v>0.01933499250204736</v>
+        <v>0.06394637983651341</v>
       </c>
       <c r="D86">
-        <v>0.08823217393451284</v>
+        <v>-0.3326545618819005</v>
       </c>
       <c r="E86">
-        <v>0.105999068599924</v>
+        <v>-0.8684119599288299</v>
       </c>
       <c r="F86">
-        <v>0.03171537643685011</v>
+        <v>0.2207726110785318</v>
       </c>
       <c r="G86">
-        <v>0.03754278260616037</v>
+        <v>0.0764531205989156</v>
       </c>
       <c r="H86">
-        <v>0.2802183824004174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.005616117889111895</v>
+      </c>
+      <c r="I86">
+        <v>-0.0930437805722472</v>
+      </c>
+      <c r="J86">
+        <v>0.05393987305368192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.1090176364975531</v>
+        <v>-0.1168627871161578</v>
       </c>
       <c r="C87">
-        <v>0.05517383677621358</v>
+        <v>-0.09424061487574603</v>
       </c>
       <c r="D87">
-        <v>0.0638589262522371</v>
+        <v>0.05188523585963069</v>
       </c>
       <c r="E87">
-        <v>0.02191233149119079</v>
+        <v>-6.86740088051537e-05</v>
       </c>
       <c r="F87">
-        <v>-0.02105134808702311</v>
+        <v>0.04042342727828663</v>
       </c>
       <c r="G87">
-        <v>0.1219224930087682</v>
+        <v>-0.03132008219995447</v>
       </c>
       <c r="H87">
-        <v>0.001789763026671989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.06121525464840515</v>
+      </c>
+      <c r="I87">
+        <v>-0.2412629852694087</v>
+      </c>
+      <c r="J87">
+        <v>-0.2045735492449168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.07170258192889713</v>
+        <v>-0.05639950631259292</v>
       </c>
       <c r="C88">
-        <v>0.0410434817274445</v>
+        <v>-0.02019305517247065</v>
       </c>
       <c r="D88">
-        <v>0.02145842375440272</v>
+        <v>-0.02706962621978703</v>
       </c>
       <c r="E88">
-        <v>0.02365534270663683</v>
+        <v>0.02166875602985994</v>
       </c>
       <c r="F88">
-        <v>0.02726603298206755</v>
+        <v>-0.04880622556290549</v>
       </c>
       <c r="G88">
-        <v>0.04546048883008568</v>
+        <v>-0.01499693154424856</v>
       </c>
       <c r="H88">
-        <v>-0.01422741641939599</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01250754010090338</v>
+      </c>
+      <c r="I88">
+        <v>-0.02197413286411632</v>
+      </c>
+      <c r="J88">
+        <v>0.04162976135454025</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.09160307666710372</v>
+        <v>-0.1275298781551192</v>
       </c>
       <c r="C89">
-        <v>-0.3863398877346796</v>
+        <v>0.3612504950707183</v>
       </c>
       <c r="D89">
-        <v>0.04157946262050894</v>
+        <v>0.1236983447721804</v>
       </c>
       <c r="E89">
-        <v>0.05312755313792834</v>
+        <v>0.004733646154393626</v>
       </c>
       <c r="F89">
-        <v>-0.02495660732416174</v>
+        <v>0.03802214467024229</v>
       </c>
       <c r="G89">
-        <v>-0.005238681697428169</v>
+        <v>-0.04661585394244071</v>
       </c>
       <c r="H89">
-        <v>-0.01603203097238793</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.00677124264224194</v>
+      </c>
+      <c r="I89">
+        <v>-0.02979152695978717</v>
+      </c>
+      <c r="J89">
+        <v>-0.007945683969470044</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.07019190187523186</v>
+        <v>-0.09583296862469959</v>
       </c>
       <c r="C90">
-        <v>-0.2930378140641967</v>
+        <v>0.2812601791363238</v>
       </c>
       <c r="D90">
-        <v>0.05310480070914474</v>
+        <v>0.09750796384769053</v>
       </c>
       <c r="E90">
-        <v>0.02049126796943735</v>
+        <v>-0.00987436241608154</v>
       </c>
       <c r="F90">
-        <v>-0.03732345555407966</v>
+        <v>-0.02392710781746821</v>
       </c>
       <c r="G90">
-        <v>0.03412946577391892</v>
+        <v>-0.02227410679236131</v>
       </c>
       <c r="H90">
-        <v>-0.04002902866562785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05175329874177082</v>
+      </c>
+      <c r="I90">
+        <v>-0.05307725852752241</v>
+      </c>
+      <c r="J90">
+        <v>-0.04897191633311693</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.08107067907085445</v>
+        <v>-0.08609437079387491</v>
       </c>
       <c r="C91">
-        <v>0.01969008972259905</v>
+        <v>-0.02344282155413531</v>
       </c>
       <c r="D91">
-        <v>-0.02291985516356011</v>
+        <v>-0.02326077582184619</v>
       </c>
       <c r="E91">
-        <v>-0.01821610996540773</v>
+        <v>-0.0060159705883507</v>
       </c>
       <c r="F91">
-        <v>0.07400709483352032</v>
+        <v>0.0005227451605922862</v>
       </c>
       <c r="G91">
-        <v>-0.06439480016336334</v>
+        <v>-0.02516939427322884</v>
       </c>
       <c r="H91">
-        <v>-0.02777500726095762</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.0213636757818303</v>
+      </c>
+      <c r="I91">
+        <v>0.03993248568539499</v>
+      </c>
+      <c r="J91">
+        <v>0.08703715176855074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.06507749013837005</v>
+        <v>-0.1090249481362925</v>
       </c>
       <c r="C92">
-        <v>-0.3571937219906067</v>
+        <v>0.3151038761392437</v>
       </c>
       <c r="D92">
-        <v>0.03790347387152258</v>
+        <v>0.1316151763275858</v>
       </c>
       <c r="E92">
-        <v>0.0153816196079872</v>
+        <v>-0.009596536861159006</v>
       </c>
       <c r="F92">
-        <v>-0.05861686853734586</v>
+        <v>0.02177191780269007</v>
       </c>
       <c r="G92">
-        <v>-0.009812459765472438</v>
+        <v>-0.0009250366075639475</v>
       </c>
       <c r="H92">
-        <v>-0.02192191082646097</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.04240855171337986</v>
+      </c>
+      <c r="I92">
+        <v>-0.056729453442299</v>
+      </c>
+      <c r="J92">
+        <v>0.02957099193496915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.08076113591827115</v>
+        <v>-0.09915664074622052</v>
       </c>
       <c r="C93">
-        <v>-0.303856511190511</v>
+        <v>0.3097446896683438</v>
       </c>
       <c r="D93">
-        <v>0.0231631267101313</v>
+        <v>0.1056516864245804</v>
       </c>
       <c r="E93">
-        <v>0.001058443552019813</v>
+        <v>-0.02611087101373614</v>
       </c>
       <c r="F93">
-        <v>-0.03208046854003579</v>
+        <v>-0.03970743179193411</v>
       </c>
       <c r="G93">
-        <v>-0.02851290555755003</v>
+        <v>-0.02823248281902881</v>
       </c>
       <c r="H93">
-        <v>0.009340856122282148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.0205958832166902</v>
+      </c>
+      <c r="I93">
+        <v>-0.02885579725878834</v>
+      </c>
+      <c r="J93">
+        <v>-0.02702061081320865</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09292942192254744</v>
+        <v>-0.1333891053256481</v>
       </c>
       <c r="C94">
-        <v>0.0428794981328323</v>
+        <v>-0.03531610912866338</v>
       </c>
       <c r="D94">
-        <v>-0.01906385542694764</v>
+        <v>-0.0244779001968936</v>
       </c>
       <c r="E94">
-        <v>-0.04837203627400982</v>
+        <v>0.0542362264293149</v>
       </c>
       <c r="F94">
-        <v>0.1173576186430041</v>
+        <v>0.002728767110277719</v>
       </c>
       <c r="G94">
-        <v>-0.05037052747497232</v>
+        <v>-0.008394658997560178</v>
       </c>
       <c r="H94">
-        <v>0.03344458464856905</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.03460182281718931</v>
+      </c>
+      <c r="I94">
+        <v>0.05304487727317622</v>
+      </c>
+      <c r="J94">
+        <v>0.1194063332375486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1313513753725482</v>
+        <v>-0.1229685820728701</v>
       </c>
       <c r="C95">
-        <v>0.07772891995721753</v>
+        <v>-0.04491593208999801</v>
       </c>
       <c r="D95">
-        <v>0.09144805732790007</v>
+        <v>-0.03607934652930843</v>
       </c>
       <c r="E95">
-        <v>0.08218263535585488</v>
+        <v>0.02692976599192875</v>
       </c>
       <c r="F95">
-        <v>-0.07190730941286189</v>
+        <v>0.03185995981676577</v>
       </c>
       <c r="G95">
-        <v>0.1105965780149355</v>
+        <v>-0.04047542830076173</v>
       </c>
       <c r="H95">
-        <v>0.08269305158290914</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.002661998433319006</v>
+      </c>
+      <c r="I95">
+        <v>-0.09486966550720073</v>
+      </c>
+      <c r="J95">
+        <v>-0.04701253537192446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.01062943273311369</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0002254948215618451</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0001121209333518136</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.003553276397107309</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.008025423587834035</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004300906361586461</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.01214730079568813</v>
+      </c>
+      <c r="I96">
+        <v>-0.02374873194482951</v>
+      </c>
+      <c r="J96">
+        <v>-0.01790818367566875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>-0.1498133775469017</v>
+        <v>-0.1682784971139696</v>
       </c>
       <c r="C97">
-        <v>-0.04154877781676367</v>
+        <v>0.0172911116810035</v>
       </c>
       <c r="D97">
-        <v>-0.2173676968857732</v>
+        <v>-0.03548773689632774</v>
       </c>
       <c r="E97">
-        <v>-0.8307251347479172</v>
+        <v>0.1125653720995458</v>
       </c>
       <c r="F97">
-        <v>-0.2270840433209278</v>
+        <v>0.03247111324995984</v>
       </c>
       <c r="G97">
-        <v>0.1666087505179041</v>
+        <v>0.9160730702695075</v>
       </c>
       <c r="H97">
-        <v>-0.03009903780645236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1229572496240333</v>
+      </c>
+      <c r="I97">
+        <v>0.1620947870985569</v>
+      </c>
+      <c r="J97">
+        <v>-0.1019708857825004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.327865539826606</v>
+        <v>-0.2719057148558192</v>
       </c>
       <c r="C98">
-        <v>0.05139583040448473</v>
+        <v>-0.02944429612537013</v>
       </c>
       <c r="D98">
-        <v>-0.22095028503044</v>
+        <v>0.02614603299030568</v>
       </c>
       <c r="E98">
-        <v>0.1521865118155892</v>
+        <v>-0.08179054589949833</v>
       </c>
       <c r="F98">
-        <v>-0.1100502692242162</v>
+        <v>0.05572547297913776</v>
       </c>
       <c r="G98">
-        <v>-0.3352601973039449</v>
+        <v>-0.03158893410548821</v>
       </c>
       <c r="H98">
-        <v>-0.2128375411569843</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.243799658881001</v>
+      </c>
+      <c r="I98">
+        <v>0.3386045090248287</v>
+      </c>
+      <c r="J98">
+        <v>0.08574767749313383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>-0.08945969680337358</v>
+        <v>-0.0586972889534884</v>
       </c>
       <c r="C99">
-        <v>0.02024734443944519</v>
+        <v>-0.0003443648287913946</v>
       </c>
       <c r="D99">
-        <v>-0.007028680389579879</v>
+        <v>-0.02159540994232929</v>
       </c>
       <c r="E99">
-        <v>0.003359182056275656</v>
+        <v>0.04717832243674018</v>
       </c>
       <c r="F99">
-        <v>-0.01472281006321051</v>
+        <v>0.006400531782355768</v>
       </c>
       <c r="G99">
-        <v>0.02283931107753588</v>
+        <v>-0.01201989907659461</v>
       </c>
       <c r="H99">
-        <v>-0.06684451386547484</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02798819058187522</v>
+      </c>
+      <c r="I99">
+        <v>0.007658009447719559</v>
+      </c>
+      <c r="J99">
+        <v>0.01815900219974504</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0858951059367709</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.3221498592067428</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8478329543513318</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.262854459335486</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1309237409623422</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.07996772546093756</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.1263578911275608</v>
+      </c>
+      <c r="I100">
+        <v>-0.04668915344195505</v>
+      </c>
+      <c r="J100">
+        <v>0.06017399789470296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.06098842000582955</v>
+        <v>-0.03794998713690843</v>
       </c>
       <c r="C101">
-        <v>0.0002399495339026172</v>
+        <v>-0.005528740526340561</v>
       </c>
       <c r="D101">
-        <v>0.04784263818524966</v>
+        <v>0.006476687275681707</v>
       </c>
       <c r="E101">
-        <v>0.02228576440208811</v>
+        <v>0.0004818327801062407</v>
       </c>
       <c r="F101">
-        <v>0.03724259021926142</v>
+        <v>-0.01217965434221328</v>
       </c>
       <c r="G101">
-        <v>0.03275208374340581</v>
+        <v>-0.0270532233270949</v>
       </c>
       <c r="H101">
-        <v>0.08881105364450387</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05365392828793342</v>
+      </c>
+      <c r="I101">
+        <v>-0.06400398018125623</v>
+      </c>
+      <c r="J101">
+        <v>0.05714984371666318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
